--- a/Nuvem/scripts/cotvoltabela.xlsx
+++ b/Nuvem/scripts/cotvoltabela.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Development_Bruno\codigos\Scripts_Queue_CPAS\Nuvem\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Scripts_Queue_CPAS\Nuvem\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49A4FA8-1852-42D6-A6D6-BCD9FA4C8F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98142C09-5EF2-4B5E-A2B5-1A46E93B3782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FC8BEDAE-C122-48BF-9869-E32546F9E5BD}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="127">
   <si>
     <t>vazaflu</t>
   </si>
@@ -805,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFAA513-2F7E-46C9-87CA-5700CB79368B}">
-  <dimension ref="C3:FM13"/>
+  <dimension ref="C3:FN13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,15 +817,15 @@
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:169" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:170" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>126</v>
       </c>
       <c r="D3" s="7">
-        <v>44421</v>
+        <v>44428</v>
       </c>
     </row>
-    <row r="5" spans="3:169" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:170" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1">
         <v>1</v>
@@ -1322,8 +1322,11 @@
       <c r="FM5" s="1">
         <v>165</v>
       </c>
+      <c r="FN5" s="1">
+        <v>166</v>
+      </c>
     </row>
-    <row r="6" spans="3:169" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:170" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1334,496 +1337,499 @@
         <v>3836</v>
       </c>
       <c r="G6" s="1">
+        <v>4010</v>
+      </c>
+      <c r="H6" s="1">
         <v>4012</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>4175</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>4196</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>4233</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>4467</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>4561</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>4583</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>4639</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>4676</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>4836</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="R6" s="1">
         <v>4856</v>
       </c>
-      <c r="R6" s="1">
+      <c r="S6" s="1">
         <v>4870</v>
       </c>
-      <c r="S6" s="1">
+      <c r="T6" s="1">
         <v>4909</v>
       </c>
-      <c r="T6" s="1">
+      <c r="U6" s="1">
         <v>4972</v>
       </c>
-      <c r="U6" s="1">
+      <c r="V6" s="1">
         <v>5002</v>
       </c>
-      <c r="V6" s="1">
+      <c r="W6" s="1">
         <v>5052</v>
       </c>
-      <c r="W6" s="1">
+      <c r="X6" s="1">
         <v>5183</v>
       </c>
-      <c r="X6" s="1">
+      <c r="Y6" s="1">
         <v>5550</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Z6" s="1">
         <v>5600</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="AA6" s="1">
         <v>5662</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AB6" s="1">
         <v>6041</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AC6" s="1">
         <v>6165</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AD6" s="1">
         <v>6211</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AE6" s="1">
         <v>6264</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AF6" s="1">
         <v>6344</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AG6" s="1">
         <v>6350</v>
       </c>
-      <c r="AG6" s="1">
+      <c r="AH6" s="1">
         <v>6371</v>
       </c>
-      <c r="AH6" s="1">
+      <c r="AI6" s="1">
         <v>6567</v>
       </c>
-      <c r="AI6" s="1">
+      <c r="AJ6" s="1">
         <v>6571</v>
       </c>
-      <c r="AJ6" s="1">
+      <c r="AK6" s="1">
         <v>6800</v>
       </c>
-      <c r="AK6" s="1">
+      <c r="AL6" s="1">
         <v>7010</v>
       </c>
-      <c r="AL6" s="1">
+      <c r="AM6" s="1">
         <v>7035</v>
       </c>
-      <c r="AM6" s="1">
+      <c r="AN6" s="1">
         <v>7070</v>
       </c>
-      <c r="AN6" s="1">
+      <c r="AO6" s="1">
         <v>7102</v>
       </c>
-      <c r="AO6" s="1">
+      <c r="AP6" s="1">
         <v>7217</v>
       </c>
-      <c r="AP6" s="1">
+      <c r="AQ6" s="1">
         <v>7376</v>
       </c>
-      <c r="AQ6" s="1">
+      <c r="AR6" s="1">
         <v>7488</v>
       </c>
-      <c r="AR6" s="1">
+      <c r="AS6" s="1">
         <v>7569</v>
       </c>
-      <c r="AS6" s="1">
+      <c r="AT6" s="1">
         <v>8124</v>
       </c>
-      <c r="AT6" s="1">
+      <c r="AU6" s="1">
         <v>8138</v>
       </c>
-      <c r="AU6" s="1">
+      <c r="AV6" s="1">
         <v>8160</v>
       </c>
-      <c r="AV6" s="1">
+      <c r="AW6" s="1">
         <v>8308</v>
       </c>
-      <c r="AW6" s="1">
+      <c r="AX6" s="1">
         <v>8379</v>
       </c>
-      <c r="AX6" s="1">
+      <c r="AY6" s="1">
         <v>8695</v>
       </c>
-      <c r="AY6" s="1">
+      <c r="AZ6" s="1">
         <v>9034</v>
       </c>
-      <c r="AZ6" s="1">
+      <c r="BA6" s="1">
         <v>9238</v>
       </c>
-      <c r="BA6" s="1">
+      <c r="BB6" s="1">
         <v>9482</v>
       </c>
-      <c r="BB6" s="1">
+      <c r="BC6" s="1">
         <v>9621</v>
       </c>
-      <c r="BC6" s="1">
+      <c r="BD6" s="1">
         <v>9626</v>
       </c>
-      <c r="BD6" s="1">
+      <c r="BE6" s="1">
         <v>9870</v>
       </c>
-      <c r="BE6" s="1">
+      <c r="BF6" s="1">
         <v>10400</v>
       </c>
-      <c r="BF6" s="1">
+      <c r="BG6" s="1">
         <v>10447</v>
       </c>
-      <c r="BG6" s="1">
+      <c r="BH6" s="1">
         <v>10569</v>
       </c>
-      <c r="BH6" s="1">
+      <c r="BI6" s="1">
         <v>10600</v>
       </c>
-      <c r="BI6" s="1">
+      <c r="BJ6" s="1">
         <v>10913</v>
       </c>
-      <c r="BJ6" s="1">
+      <c r="BK6" s="1">
         <v>11088</v>
       </c>
-      <c r="BK6" s="1">
+      <c r="BL6" s="1">
         <v>11635</v>
       </c>
-      <c r="BL6" s="1">
+      <c r="BM6" s="1">
         <v>11644</v>
       </c>
-      <c r="BM6" s="1">
+      <c r="BN6" s="1">
         <v>12218</v>
       </c>
-      <c r="BN6" s="1">
+      <c r="BO6" s="1">
         <v>12311</v>
       </c>
-      <c r="BO6" s="1">
+      <c r="BP6" s="1">
         <v>12996</v>
       </c>
-      <c r="BP6" s="1">
+      <c r="BQ6" s="1">
         <v>13334</v>
       </c>
-      <c r="BQ6" s="1">
+      <c r="BR6" s="1">
         <v>13524</v>
       </c>
-      <c r="BR6" s="1">
+      <c r="BS6" s="1">
         <v>13604</v>
       </c>
-      <c r="BS6" s="1">
+      <c r="BT6" s="1">
         <v>13733</v>
       </c>
-      <c r="BT6" s="1">
+      <c r="BU6" s="1">
         <v>13817</v>
       </c>
-      <c r="BU6" s="1">
+      <c r="BV6" s="1">
         <v>13994</v>
       </c>
-      <c r="BV6" s="1">
+      <c r="BW6" s="1">
         <v>14444</v>
       </c>
-      <c r="BW6" s="1">
+      <c r="BX6" s="1">
         <v>14685</v>
       </c>
-      <c r="BX6" s="1">
+      <c r="BY6" s="1">
         <v>14766</v>
       </c>
-      <c r="BY6" s="1">
+      <c r="BZ6" s="1">
         <v>14858</v>
       </c>
-      <c r="BZ6" s="1">
+      <c r="CA6" s="1">
         <v>15246</v>
       </c>
-      <c r="CA6" s="1">
+      <c r="CB6" s="1">
         <v>15472</v>
       </c>
-      <c r="CB6" s="1">
+      <c r="CC6" s="1">
         <v>15855</v>
       </c>
-      <c r="CC6" s="1">
+      <c r="CD6" s="1">
         <v>15900</v>
       </c>
-      <c r="CD6" s="1">
+      <c r="CE6" s="1">
         <v>16600</v>
       </c>
-      <c r="CE6" s="1">
+      <c r="CF6" s="1">
         <v>17088</v>
       </c>
-      <c r="CF6" s="1">
+      <c r="CG6" s="1">
         <v>17261</v>
       </c>
-      <c r="CG6" s="1">
+      <c r="CH6" s="1">
         <v>17305</v>
       </c>
-      <c r="CH6" s="1">
+      <c r="CI6" s="1">
         <v>17566</v>
       </c>
-      <c r="CI6" s="1">
+      <c r="CJ6" s="1">
         <v>17662</v>
       </c>
-      <c r="CJ6" s="1">
+      <c r="CK6" s="1">
         <v>19225</v>
       </c>
-      <c r="CK6" s="1">
+      <c r="CL6" s="1">
         <v>19617</v>
       </c>
-      <c r="CL6" s="1">
+      <c r="CM6" s="1">
         <v>20033</v>
       </c>
-      <c r="CM6" s="1">
+      <c r="CN6" s="1">
         <v>20690</v>
       </c>
-      <c r="CN6" s="1">
+      <c r="CO6" s="1">
         <v>20833</v>
       </c>
-      <c r="CO6" s="1">
+      <c r="CP6" s="1">
         <v>20940</v>
       </c>
-      <c r="CP6" s="1">
+      <c r="CQ6" s="1">
         <v>21314</v>
       </c>
-      <c r="CQ6" s="1">
+      <c r="CR6" s="1">
         <v>22116</v>
       </c>
-      <c r="CR6" s="1">
+      <c r="CS6" s="1">
         <v>22580</v>
       </c>
-      <c r="CS6" s="1">
+      <c r="CT6" s="1">
         <v>22700</v>
       </c>
-      <c r="CT6" s="1">
+      <c r="CU6" s="1">
         <v>22734</v>
       </c>
-      <c r="CU6" s="1">
+      <c r="CV6" s="1">
         <v>23603</v>
       </c>
-      <c r="CV6" s="1">
+      <c r="CW6" s="1">
         <v>23900</v>
       </c>
-      <c r="CW6" s="1">
+      <c r="CX6" s="1">
         <v>24212</v>
       </c>
-      <c r="CX6" s="1">
+      <c r="CY6" s="1">
         <v>24344</v>
       </c>
-      <c r="CY6" s="1">
+      <c r="CZ6" s="1">
         <v>24400</v>
       </c>
-      <c r="CZ6" s="1">
+      <c r="DA6" s="1">
         <v>24507</v>
       </c>
-      <c r="DA6" s="1">
+      <c r="DB6" s="1">
         <v>24622</v>
       </c>
-      <c r="DB6" s="1">
+      <c r="DC6" s="1">
         <v>24853</v>
       </c>
-      <c r="DC6" s="1">
+      <c r="DD6" s="1">
         <v>24858</v>
       </c>
-      <c r="DD6" s="1">
+      <c r="DE6" s="1">
         <v>25466</v>
       </c>
-      <c r="DE6" s="1">
+      <c r="DF6" s="1">
         <v>26307</v>
       </c>
-      <c r="DF6" s="1">
+      <c r="DG6" s="1">
         <v>26678</v>
       </c>
-      <c r="DG6" s="1">
+      <c r="DH6" s="1">
         <v>27059</v>
       </c>
-      <c r="DH6" s="1">
+      <c r="DI6" s="1">
         <v>27484</v>
       </c>
-      <c r="DI6" s="1">
+      <c r="DJ6" s="1">
         <v>27600</v>
       </c>
-      <c r="DJ6" s="1">
+      <c r="DK6" s="1">
         <v>28035</v>
       </c>
-      <c r="DK6" s="1">
+      <c r="DL6" s="1">
         <v>28512</v>
       </c>
-      <c r="DL6" s="1">
+      <c r="DM6" s="1">
         <v>28664</v>
       </c>
-      <c r="DM6" s="1">
+      <c r="DN6" s="1">
         <v>28685</v>
       </c>
-      <c r="DN6" s="1">
+      <c r="DO6" s="1">
         <v>29414</v>
       </c>
-      <c r="DO6" s="1">
+      <c r="DP6" s="1">
         <v>30612</v>
       </c>
-      <c r="DP6" s="1">
+      <c r="DQ6" s="1">
         <v>30709</v>
       </c>
-      <c r="DQ6" s="1">
+      <c r="DR6" s="1">
         <v>31004</v>
       </c>
-      <c r="DR6" s="1">
+      <c r="DS6" s="1">
         <v>31914</v>
       </c>
-      <c r="DS6" s="1">
+      <c r="DT6" s="1">
         <v>32086</v>
       </c>
-      <c r="DT6" s="1">
+      <c r="DU6" s="1">
         <v>32553</v>
       </c>
-      <c r="DU6" s="1">
+      <c r="DV6" s="1">
         <v>32652</v>
       </c>
-      <c r="DV6" s="1">
+      <c r="DW6" s="1">
         <v>33481</v>
       </c>
-      <c r="DW6" s="1">
+      <c r="DX6" s="1">
         <v>33650</v>
       </c>
-      <c r="DX6" s="1">
+      <c r="DY6" s="1">
         <v>33833</v>
       </c>
-      <c r="DY6" s="1">
+      <c r="DZ6" s="1">
         <v>34123</v>
       </c>
-      <c r="DZ6" s="1">
+      <c r="EA6" s="1">
         <v>34578</v>
       </c>
-      <c r="EA6" s="1">
+      <c r="EB6" s="1">
         <v>34663</v>
       </c>
-      <c r="EB6" s="1">
+      <c r="EC6" s="1">
         <v>34785</v>
       </c>
-      <c r="EC6" s="1">
+      <c r="ED6" s="1">
         <v>35474</v>
       </c>
-      <c r="ED6" s="1">
+      <c r="EE6" s="1">
         <v>35496</v>
       </c>
-      <c r="EE6" s="1">
+      <c r="EF6" s="1">
         <v>35542</v>
       </c>
-      <c r="EF6" s="1">
+      <c r="EG6" s="1">
         <v>35712</v>
       </c>
-      <c r="EG6" s="1">
+      <c r="EH6" s="1">
         <v>35800</v>
       </c>
-      <c r="EH6" s="1">
+      <c r="EI6" s="1">
         <v>35864</v>
       </c>
-      <c r="EI6" s="1">
+      <c r="EJ6" s="1">
         <v>36864</v>
       </c>
-      <c r="EJ6" s="1">
+      <c r="EK6" s="1">
         <v>37004</v>
       </c>
-      <c r="EK6" s="1">
+      <c r="EL6" s="1">
         <v>37209</v>
       </c>
-      <c r="EL6" s="1">
+      <c r="EM6" s="1">
         <v>37367</v>
       </c>
-      <c r="EM6" s="1">
+      <c r="EN6" s="1">
         <v>37560</v>
       </c>
-      <c r="EN6" s="1">
+      <c r="EO6" s="1">
         <v>37600</v>
       </c>
-      <c r="EO6" s="1">
+      <c r="EP6" s="1">
         <v>37607</v>
       </c>
-      <c r="EP6" s="1">
+      <c r="EQ6" s="1">
         <v>37858</v>
       </c>
-      <c r="EQ6" s="1">
+      <c r="ER6" s="1">
         <v>37865</v>
       </c>
-      <c r="ER6" s="1">
+      <c r="ES6" s="1">
         <v>38372</v>
       </c>
-      <c r="ES6" s="1">
+      <c r="ET6" s="1">
         <v>38499</v>
       </c>
-      <c r="ET6" s="1">
+      <c r="EU6" s="1">
         <v>38570</v>
       </c>
-      <c r="EU6" s="1">
+      <c r="EV6" s="1">
         <v>38611</v>
       </c>
-      <c r="EV6" s="1">
+      <c r="EW6" s="1">
         <v>38928</v>
       </c>
-      <c r="EW6" s="1">
+      <c r="EX6" s="1">
         <v>38970</v>
       </c>
-      <c r="EX6" s="1">
+      <c r="EY6" s="1">
         <v>39050</v>
       </c>
-      <c r="EY6" s="1">
+      <c r="EZ6" s="1">
         <v>39085</v>
       </c>
-      <c r="EZ6" s="1">
+      <c r="FA6" s="1">
         <v>39518</v>
       </c>
-      <c r="FA6" s="1">
+      <c r="FB6" s="1">
         <v>39851</v>
       </c>
-      <c r="FB6" s="1">
+      <c r="FC6" s="1">
         <v>39902</v>
       </c>
-      <c r="FC6" s="1">
+      <c r="FD6" s="1">
         <v>39908</v>
       </c>
-      <c r="FD6" s="1">
+      <c r="FE6" s="1">
         <v>40300</v>
       </c>
-      <c r="FE6" s="1">
+      <c r="FF6" s="1">
         <v>40516</v>
       </c>
-      <c r="FF6" s="1">
+      <c r="FG6" s="1">
         <v>41400</v>
       </c>
-      <c r="FG6" s="1">
+      <c r="FH6" s="1">
         <v>42250</v>
       </c>
-      <c r="FH6" s="1">
+      <c r="FI6" s="1">
         <v>43000</v>
       </c>
-      <c r="FI6" s="1">
+      <c r="FJ6" s="1">
         <v>43600</v>
       </c>
-      <c r="FJ6" s="1">
+      <c r="FK6" s="1">
         <v>44050</v>
       </c>
-      <c r="FK6" s="1">
+      <c r="FL6" s="1">
         <v>44400</v>
       </c>
-      <c r="FL6" s="1">
+      <c r="FM6" s="1">
         <v>44555</v>
       </c>
-      <c r="FM6" s="1">
+      <c r="FN6" s="1">
         <v>47521</v>
       </c>
     </row>
-    <row r="7" spans="3:169" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:170" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1834,10 +1840,10 @@
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>5</v>
@@ -1891,224 +1897,224 @@
         <v>5</v>
       </c>
       <c r="Z7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA7" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AA7" s="1" t="s">
+      <c r="AB7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AC7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AD7" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AE7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AF7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AF7" s="1" t="s">
+      <c r="AG7" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AG7" s="2" t="s">
+      <c r="AH7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AH7" s="1" t="s">
+      <c r="AI7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AI7" s="1" t="s">
+      <c r="AJ7" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AJ7" s="1" t="s">
+      <c r="AK7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AK7" s="1" t="s">
+      <c r="AL7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AL7" s="1" t="s">
+      <c r="AM7" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="AN7" s="1" t="s">
         <v>115</v>
       </c>
       <c r="AO7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP7" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AP7" s="1" t="s">
+      <c r="AQ7" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AQ7" s="1" t="s">
+      <c r="AR7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AR7" s="1" t="s">
+      <c r="AS7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AS7" s="1" t="s">
+      <c r="AT7" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AT7" s="1" t="s">
+      <c r="AU7" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AU7" s="1" t="s">
+      <c r="AV7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AV7" s="1" t="s">
+      <c r="AW7" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AW7" s="1" t="s">
+      <c r="AX7" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AX7" s="1" t="s">
+      <c r="AY7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AY7" s="1" t="s">
+      <c r="AZ7" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AZ7" s="1" t="s">
+      <c r="BA7" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="BA7" s="1" t="s">
+      <c r="BB7" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="BB7" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="BC7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="BD7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="BE7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BE7" s="1" t="s">
+      <c r="BF7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BF7" s="1" t="s">
+      <c r="BG7" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="BG7" s="1" t="s">
+      <c r="BH7" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="BH7" s="1" t="s">
+      <c r="BI7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="BI7" s="1" t="s">
+      <c r="BJ7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="BJ7" s="1" t="s">
+      <c r="BK7" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BK7" s="1" t="s">
+      <c r="BL7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="BL7" s="1" t="s">
+      <c r="BM7" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="BM7" s="1" t="s">
+      <c r="BN7" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="BN7" s="1" t="s">
+      <c r="BO7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="BO7" s="1" t="s">
+      <c r="BP7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="BP7" s="1" t="s">
+      <c r="BQ7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="BQ7" s="1" t="s">
+      <c r="BR7" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="BR7" s="1" t="s">
+      <c r="BS7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BS7" s="1" t="s">
+      <c r="BT7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="BT7" s="1" t="s">
+      <c r="BU7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="BU7" s="1" t="s">
+      <c r="BV7" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="BV7" s="1" t="s">
+      <c r="BW7" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="BW7" s="1" t="s">
+      <c r="BX7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="BX7" s="1" t="s">
+      <c r="BY7" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="BY7" s="1" t="s">
+      <c r="BZ7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="BZ7" s="1" t="s">
+      <c r="CA7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="CA7" s="1" t="s">
+      <c r="CB7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CB7" s="2" t="s">
+      <c r="CC7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="CC7" s="2" t="s">
+      <c r="CD7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="CD7" s="2" t="s">
+      <c r="CE7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="CE7" s="4" t="s">
+      <c r="CF7" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="CF7" s="1" t="s">
+      <c r="CG7" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="CG7" s="1" t="s">
+      <c r="CH7" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="CH7" s="2" t="s">
+      <c r="CI7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="CI7" s="6" t="s">
+      <c r="CJ7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="CJ7" s="6" t="s">
+      <c r="CK7" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="CK7" s="6" t="s">
+      <c r="CL7" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="CL7" s="4" t="s">
+      <c r="CM7" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="CM7" s="1" t="s">
+      <c r="CN7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="CN7" s="1" t="s">
+      <c r="CO7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="CO7" s="1" t="s">
+      <c r="CP7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="CP7" s="2" t="s">
+      <c r="CQ7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="CQ7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="CR7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="CS7" s="2" t="s">
+      <c r="CR7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="CS7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="CT7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="CT7" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="CU7" s="1" t="s">
         <v>38</v>
       </c>
@@ -2197,82 +2203,82 @@
         <v>38</v>
       </c>
       <c r="DX7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="DY7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="DY7" s="1" t="s">
+      <c r="DZ7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="DZ7" s="1" t="s">
+      <c r="EA7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="EA7" s="1" t="s">
+      <c r="EB7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="EB7" s="1" t="s">
+      <c r="EC7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="EC7" s="1" t="s">
+      <c r="ED7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="ED7" s="2" t="s">
+      <c r="EE7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="EE7" s="1" t="s">
+      <c r="EF7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="EF7" s="2" t="s">
+      <c r="EG7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="EG7" s="2" t="s">
+      <c r="EH7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="EH7" s="1" t="s">
+      <c r="EI7" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="EI7" s="1" t="s">
+      <c r="EJ7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="EJ7" s="1" t="s">
+      <c r="EK7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="EK7" s="1" t="s">
+      <c r="EL7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="EL7" s="1" t="s">
+      <c r="EM7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="EM7" s="1" t="s">
+      <c r="EN7" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="EN7" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="EO7" s="1" t="s">
         <v>73</v>
       </c>
       <c r="EP7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="EQ7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="EQ7" s="1" t="s">
+      <c r="ER7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="ER7" s="1" t="s">
+      <c r="ES7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="ES7" s="1" t="s">
+      <c r="ET7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="ET7" s="1" t="s">
+      <c r="EU7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="EU7" s="1" t="s">
+      <c r="EV7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="EV7" s="1" t="s">
+      <c r="EW7" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="EW7" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="EX7" s="1" t="s">
         <v>40</v>
@@ -2281,124 +2287,130 @@
         <v>40</v>
       </c>
       <c r="EZ7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="FA7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="FA7" s="1" t="s">
+      <c r="FB7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="FB7" s="1" t="s">
+      <c r="FC7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="FC7" s="1" t="s">
+      <c r="FD7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="FD7" s="1" t="s">
+      <c r="FE7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="FE7" s="1" t="s">
+      <c r="FF7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="FF7" s="1" t="s">
+      <c r="FG7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="FG7" s="1" t="s">
+      <c r="FH7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="FH7" s="1" t="s">
+      <c r="FI7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="FI7" s="1" t="s">
+      <c r="FJ7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="FJ7" s="1" t="s">
+      <c r="FK7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="FK7" s="1" t="s">
+      <c r="FL7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="FL7" s="1" t="s">
+      <c r="FM7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="FM7" s="1" t="s">
+      <c r="FN7" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="3:169" x14ac:dyDescent="0.25">
-      <c r="AG8" t="s">
+    <row r="8" spans="3:170" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH8" t="s">
         <v>122</v>
       </c>
-      <c r="CB8" t="s">
+      <c r="CC8" t="s">
         <v>35</v>
       </c>
-      <c r="CC8" t="s">
+      <c r="CD8" t="s">
         <v>90</v>
       </c>
-      <c r="CD8" s="3" t="s">
+      <c r="CE8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="CE8" s="5"/>
-      <c r="CH8" t="s">
+      <c r="CF8" s="5"/>
+      <c r="CI8" t="s">
         <v>100</v>
       </c>
-      <c r="CP8" t="s">
+      <c r="CQ8" t="s">
         <v>89</v>
       </c>
-      <c r="CS8" t="s">
-        <v>38</v>
-      </c>
-      <c r="CV8" s="3" t="s">
+      <c r="CT8" t="s">
+        <v>38</v>
+      </c>
+      <c r="CW8" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="CW8" s="3"/>
-      <c r="CX8" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="CX8" s="3"/>
       <c r="CY8" s="3" t="s">
         <v>79</v>
       </c>
       <c r="CZ8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="DA8" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="DA8" s="3" t="s">
+      <c r="DB8" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="DB8" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="DC8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="ED8" t="s">
+      <c r="DD8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="EE8" t="s">
         <v>76</v>
       </c>
-      <c r="EF8" t="s">
+      <c r="EG8" t="s">
         <v>81</v>
       </c>
-      <c r="EG8" t="s">
+      <c r="EH8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="3:169" x14ac:dyDescent="0.25">
-      <c r="CD9" t="s">
+    <row r="9" spans="3:170" x14ac:dyDescent="0.25">
+      <c r="CE9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="3:169" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:170" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="3:169" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:170" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="3:169" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:170" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="3:169" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:170" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>53</v>
       </c>
